--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW40.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CubeA-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CubeA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.997885488055857</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9671672344821337</v>
+      </c>
+      <c r="D16">
+        <v>1.044982739407209</v>
+      </c>
+      <c r="E16">
+        <v>0.985526333062672</v>
+      </c>
+      <c r="F16">
+        <v>1.006797359985314</v>
+      </c>
+      <c r="G16">
+        <v>0.9671672344821337</v>
+      </c>
+      <c r="H16">
+        <v>1.044982739407209</v>
+      </c>
+      <c r="I16">
+        <v>0.9873632744601039</v>
+      </c>
+      <c r="J16">
+        <v>1.007414843407916</v>
+      </c>
+      <c r="K16">
+        <v>0.9877485424670935</v>
+      </c>
+      <c r="L16">
+        <v>1.023711712484567</v>
+      </c>
+      <c r="M16">
+        <v>0.9671672344821337</v>
+      </c>
+      <c r="N16">
+        <v>1.015254536234941</v>
+      </c>
+      <c r="O16">
+        <v>1.001118416734332</v>
+      </c>
+      <c r="P16">
+        <v>1.001339004969626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9671672344821337</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9272680000000016</v>
+        <v>0.9671672344821337</v>
       </c>
       <c r="D10">
-        <v>1.122959999999998</v>
+        <v>1.044982739407209</v>
       </c>
       <c r="E10">
-        <v>0.970612</v>
+        <v>0.985526333062672</v>
       </c>
       <c r="F10">
-        <v>1.023343999999999</v>
+        <v>1.006797359985314</v>
       </c>
       <c r="G10">
-        <v>0.9272680000000016</v>
+        <v>0.9671672344821337</v>
       </c>
       <c r="H10">
-        <v>1.122959999999998</v>
+        <v>1.044982739407209</v>
       </c>
       <c r="I10">
-        <v>0.9616560000000003</v>
+        <v>0.9873632744601039</v>
       </c>
       <c r="J10">
-        <v>1.01938</v>
+        <v>1.007414843407916</v>
       </c>
       <c r="K10">
-        <v>0.968947999999999</v>
+        <v>0.9877485424670935</v>
       </c>
       <c r="L10">
-        <v>1.068148</v>
+        <v>1.023711712484567</v>
       </c>
       <c r="M10">
-        <v>0.9272680000000016</v>
+        <v>0.9671672344821337</v>
       </c>
       <c r="N10">
-        <v>1.046785999999999</v>
+        <v>1.015254536234941</v>
       </c>
       <c r="O10">
-        <v>1.011046</v>
+        <v>1.001118416734332</v>
       </c>
       <c r="P10">
-        <v>1.0077895</v>
+        <v>1.001339004969626</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.89</v>
+        <v>0.953852907003488</v>
       </c>
       <c r="D11">
-        <v>1.19625</v>
+        <v>1.060886654338796</v>
       </c>
       <c r="E11">
-        <v>0.95</v>
+        <v>0.9871527420255917</v>
       </c>
       <c r="F11">
-        <v>1.04</v>
+        <v>1.010326071647382</v>
       </c>
       <c r="G11">
-        <v>0.89</v>
+        <v>0.953852907003488</v>
       </c>
       <c r="H11">
-        <v>1.19625</v>
+        <v>1.060886654338796</v>
       </c>
       <c r="I11">
-        <v>0.9399999999999999</v>
+        <v>0.9765784868172233</v>
       </c>
       <c r="J11">
-        <v>1.03</v>
+        <v>1.011992070415756</v>
       </c>
       <c r="K11">
-        <v>0.95</v>
+        <v>0.9839743772667927</v>
       </c>
       <c r="L11">
-        <v>1.11</v>
+        <v>1.038021322437206</v>
       </c>
       <c r="M11">
-        <v>0.89</v>
+        <v>0.953852907003488</v>
       </c>
       <c r="N11">
-        <v>1.073125</v>
+        <v>1.024019698182194</v>
       </c>
       <c r="O11">
-        <v>1.0190625</v>
+        <v>1.003054593753815</v>
       </c>
       <c r="P11">
-        <v>1.01328125</v>
+        <v>1.00284807899403</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9353523499007999</v>
+        <v>0.9540130305861277</v>
       </c>
       <c r="D12">
-        <v>1.113457854771195</v>
+        <v>1.060522056138634</v>
       </c>
       <c r="E12">
-        <v>0.9703962064896026</v>
+        <v>0.987244497533637</v>
       </c>
       <c r="F12">
-        <v>1.022481492787198</v>
+        <v>1.010255078231407</v>
       </c>
       <c r="G12">
-        <v>0.9353523499007999</v>
+        <v>0.9540130305861277</v>
       </c>
       <c r="H12">
-        <v>1.113457854771195</v>
+        <v>1.060522056138634</v>
       </c>
       <c r="I12">
-        <v>0.9645563451391991</v>
+        <v>0.9766677078428385</v>
       </c>
       <c r="J12">
-        <v>1.017288435302398</v>
+        <v>1.011950749797199</v>
       </c>
       <c r="K12">
-        <v>0.970822411878401</v>
+        <v>0.9840797755363901</v>
       </c>
       <c r="L12">
-        <v>1.063479191347198</v>
+        <v>1.037839860354913</v>
       </c>
       <c r="M12">
-        <v>0.9353523499007999</v>
+        <v>0.9540130305861277</v>
       </c>
       <c r="N12">
-        <v>1.041927030630399</v>
+        <v>1.023883276836136</v>
       </c>
       <c r="O12">
-        <v>1.010421975987199</v>
+        <v>1.003008665622452</v>
       </c>
       <c r="P12">
-        <v>1.007229285951999</v>
+        <v>1.002821594502644</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9984369683442016</v>
+        <v>0.9538776991947603</v>
       </c>
       <c r="D13">
-        <v>0.9986454284731119</v>
+        <v>1.060790560454934</v>
       </c>
       <c r="E13">
-        <v>0.9992953832100649</v>
+        <v>0.9871647472831394</v>
       </c>
       <c r="F13">
-        <v>0.9992033609222285</v>
+        <v>1.010292848249174</v>
       </c>
       <c r="G13">
-        <v>0.9984369683442016</v>
+        <v>0.9538776991947603</v>
       </c>
       <c r="H13">
-        <v>0.9986454284731119</v>
+        <v>1.060790560454934</v>
       </c>
       <c r="I13">
-        <v>0.9989808257536245</v>
+        <v>0.9765891386576606</v>
       </c>
       <c r="J13">
-        <v>0.9985409214338279</v>
+        <v>1.011991150601743</v>
       </c>
       <c r="K13">
-        <v>0.999118782513591</v>
+        <v>0.9840104761267034</v>
       </c>
       <c r="L13">
-        <v>0.9990404520765304</v>
+        <v>1.037993424423308</v>
       </c>
       <c r="M13">
-        <v>0.9984369683442016</v>
+        <v>0.9538776991947603</v>
       </c>
       <c r="N13">
-        <v>0.9989704058415885</v>
+        <v>1.023977653869037</v>
       </c>
       <c r="O13">
-        <v>0.9988952852374018</v>
+        <v>1.003031463795502</v>
       </c>
       <c r="P13">
-        <v>0.9989077653408975</v>
+        <v>1.002838755623928</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.001309643577751</v>
+        <v>0.9272680000000016</v>
       </c>
       <c r="D14">
-        <v>0.9928797276838186</v>
+        <v>1.122959999999998</v>
       </c>
       <c r="E14">
-        <v>1.001008256296113</v>
+        <v>0.970612</v>
       </c>
       <c r="F14">
-        <v>0.9983111647218196</v>
+        <v>1.023343999999999</v>
       </c>
       <c r="G14">
-        <v>1.001309643577751</v>
+        <v>0.9272680000000016</v>
       </c>
       <c r="H14">
-        <v>0.9928797276838186</v>
+        <v>1.122959999999998</v>
       </c>
       <c r="I14">
-        <v>0.9999102089600937</v>
+        <v>0.9616560000000003</v>
       </c>
       <c r="J14">
-        <v>0.9973742987586026</v>
+        <v>1.01938</v>
       </c>
       <c r="K14">
-        <v>0.9999156534093614</v>
+        <v>0.968947999999999</v>
       </c>
       <c r="L14">
-        <v>0.994466333746584</v>
+        <v>1.068148</v>
       </c>
       <c r="M14">
-        <v>1.001309643577751</v>
+        <v>0.9272680000000016</v>
       </c>
       <c r="N14">
-        <v>0.9969439919899657</v>
+        <v>1.046785999999999</v>
       </c>
       <c r="O14">
-        <v>0.9983771980698755</v>
+        <v>1.011046</v>
       </c>
       <c r="P14">
-        <v>0.998146910894268</v>
+        <v>1.0077895</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.012155123431398</v>
+        <v>0.89</v>
       </c>
       <c r="D15">
-        <v>0.9806748196061096</v>
+        <v>1.19625</v>
       </c>
       <c r="E15">
-        <v>1.003506710686818</v>
+        <v>0.95</v>
       </c>
       <c r="F15">
-        <v>0.9949190271196512</v>
+        <v>1.04</v>
       </c>
       <c r="G15">
-        <v>1.012155123431398</v>
+        <v>0.89</v>
       </c>
       <c r="H15">
-        <v>0.9806748196061096</v>
+        <v>1.19625</v>
       </c>
       <c r="I15">
-        <v>1.006782125257129</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J15">
-        <v>0.9950410336891969</v>
+        <v>1.03</v>
       </c>
       <c r="K15">
-        <v>1.004063501923838</v>
+        <v>0.95</v>
       </c>
       <c r="L15">
-        <v>0.9859415627327146</v>
+        <v>1.11</v>
       </c>
       <c r="M15">
-        <v>1.012155123431398</v>
+        <v>0.89</v>
       </c>
       <c r="N15">
-        <v>0.9920907651464639</v>
+        <v>1.073125</v>
       </c>
       <c r="O15">
-        <v>0.9978139202109942</v>
+        <v>1.0190625</v>
       </c>
       <c r="P15">
-        <v>0.997885488055857</v>
+        <v>1.01328125</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9671672344821337</v>
+        <v>0.9353523499007999</v>
       </c>
       <c r="D16">
-        <v>1.044982739407209</v>
+        <v>1.113457854771195</v>
       </c>
       <c r="E16">
-        <v>0.985526333062672</v>
+        <v>0.9703962064896026</v>
       </c>
       <c r="F16">
-        <v>1.006797359985314</v>
+        <v>1.022481492787198</v>
       </c>
       <c r="G16">
-        <v>0.9671672344821337</v>
+        <v>0.9353523499007999</v>
       </c>
       <c r="H16">
-        <v>1.044982739407209</v>
+        <v>1.113457854771195</v>
       </c>
       <c r="I16">
-        <v>0.9873632744601039</v>
+        <v>0.9645563451391991</v>
       </c>
       <c r="J16">
-        <v>1.007414843407916</v>
+        <v>1.017288435302398</v>
       </c>
       <c r="K16">
-        <v>0.9877485424670935</v>
+        <v>0.970822411878401</v>
       </c>
       <c r="L16">
-        <v>1.023711712484567</v>
+        <v>1.063479191347198</v>
       </c>
       <c r="M16">
-        <v>0.9671672344821337</v>
+        <v>0.9353523499007999</v>
       </c>
       <c r="N16">
-        <v>1.015254536234941</v>
+        <v>1.041927030630399</v>
       </c>
       <c r="O16">
-        <v>1.001118416734332</v>
+        <v>1.010421975987199</v>
       </c>
       <c r="P16">
-        <v>1.001339004969626</v>
+        <v>1.007229285951999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9984369683442016</v>
+      </c>
+      <c r="D17">
+        <v>0.9986454284731119</v>
+      </c>
+      <c r="E17">
+        <v>0.9992953832100649</v>
+      </c>
+      <c r="F17">
+        <v>0.9992033609222285</v>
+      </c>
+      <c r="G17">
+        <v>0.9984369683442016</v>
+      </c>
+      <c r="H17">
+        <v>0.9986454284731119</v>
+      </c>
+      <c r="I17">
+        <v>0.9989808257536245</v>
+      </c>
+      <c r="J17">
+        <v>0.9985409214338279</v>
+      </c>
+      <c r="K17">
+        <v>0.999118782513591</v>
+      </c>
+      <c r="L17">
+        <v>0.9990404520765304</v>
+      </c>
+      <c r="M17">
+        <v>0.9984369683442016</v>
+      </c>
+      <c r="N17">
+        <v>0.9989704058415885</v>
+      </c>
+      <c r="O17">
+        <v>0.9988952852374018</v>
+      </c>
+      <c r="P17">
+        <v>0.9989077653408975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.001309643577751</v>
+      </c>
+      <c r="D18">
+        <v>0.9928797276838186</v>
+      </c>
+      <c r="E18">
+        <v>1.001008256296113</v>
+      </c>
+      <c r="F18">
+        <v>0.9983111647218196</v>
+      </c>
+      <c r="G18">
+        <v>1.001309643577751</v>
+      </c>
+      <c r="H18">
+        <v>0.9928797276838186</v>
+      </c>
+      <c r="I18">
+        <v>0.9999102089600937</v>
+      </c>
+      <c r="J18">
+        <v>0.9973742987586026</v>
+      </c>
+      <c r="K18">
+        <v>0.9999156534093614</v>
+      </c>
+      <c r="L18">
+        <v>0.994466333746584</v>
+      </c>
+      <c r="M18">
+        <v>1.001309643577751</v>
+      </c>
+      <c r="N18">
+        <v>0.9969439919899657</v>
+      </c>
+      <c r="O18">
+        <v>0.9983771980698755</v>
+      </c>
+      <c r="P18">
+        <v>0.998146910894268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.012155123431398</v>
+      </c>
+      <c r="D19">
+        <v>0.9806748196061096</v>
+      </c>
+      <c r="E19">
+        <v>1.003506710686818</v>
+      </c>
+      <c r="F19">
+        <v>0.9949190271196512</v>
+      </c>
+      <c r="G19">
+        <v>1.012155123431398</v>
+      </c>
+      <c r="H19">
+        <v>0.9806748196061096</v>
+      </c>
+      <c r="I19">
+        <v>1.006782125257129</v>
+      </c>
+      <c r="J19">
+        <v>0.9950410336891969</v>
+      </c>
+      <c r="K19">
+        <v>1.004063501923838</v>
+      </c>
+      <c r="L19">
+        <v>0.9859415627327146</v>
+      </c>
+      <c r="M19">
+        <v>1.012155123431398</v>
+      </c>
+      <c r="N19">
+        <v>0.9920907651464639</v>
+      </c>
+      <c r="O19">
+        <v>0.9978139202109942</v>
+      </c>
+      <c r="P19">
+        <v>0.997885488055857</v>
       </c>
     </row>
   </sheetData>
